--- a/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T15:49:52+00:00</t>
+    <t>2023-02-06T15:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T15:52:39+00:00</t>
+    <t>2023-02-08T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>90</v>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>

--- a/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-diagnosis.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>HIV Diagnosis</t>
+    <t>Diagnosis</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T08:31:05+00:00</t>
+    <t>2023-02-08T11:22:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile allows the exchange of a patient's hiv diagnosis</t>
+    <t>Confirmation of the diagnosis</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -789,13 +789,6 @@
 The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;code value="confirmed"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
   </si>
   <si>
@@ -892,13 +885,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identification of the condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-hiv-diagnosis</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -938,6 +925,9 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1650,7 +1640,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.7109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.12109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4093,7 +4083,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>90</v>
@@ -4248,7 +4238,7 @@
         <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>79</v>
@@ -4266,10 +4256,10 @@
         <v>180</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4296,7 +4286,7 @@
         <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>102</v>
@@ -4305,27 +4295,27 @@
         <v>241</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>245</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4351,13 +4341,13 @@
         <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4386,10 +4376,10 @@
         <v>192</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4407,7 +4397,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4425,16 +4415,16 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -4442,10 +4432,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4471,13 +4461,13 @@
         <v>187</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4506,10 +4496,10 @@
         <v>114</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4527,7 +4517,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4545,35 +4535,35 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -4591,14 +4581,14 @@
         <v>187</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4623,13 +4613,11 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4647,7 +4635,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4662,30 +4650,30 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4711,13 +4699,13 @@
         <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4743,13 +4731,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4767,7 +4755,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4785,31 +4773,31 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4828,17 +4816,17 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4887,7 +4875,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>90</v>
@@ -4902,19 +4890,19 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -4922,10 +4910,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4933,7 +4921,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>90</v>
@@ -4948,16 +4936,16 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5007,7 +4995,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5022,19 +5010,19 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5042,10 +5030,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5068,16 +5056,16 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5127,7 +5115,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5142,19 +5130,19 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>79</v>
@@ -5162,10 +5150,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5188,16 +5176,16 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5247,7 +5235,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5256,7 +5244,7 @@
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>102</v>
@@ -5271,10 +5259,10 @@
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -5282,10 +5270,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5308,13 +5296,13 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5365,7 +5353,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5386,13 +5374,13 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>79</v>
@@ -5400,10 +5388,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5426,13 +5414,13 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5483,7 +5471,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5507,10 +5495,10 @@
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>79</v>
@@ -5518,10 +5506,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5544,13 +5532,13 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5601,7 +5589,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5622,13 +5610,13 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>79</v>
@@ -5636,10 +5624,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5662,13 +5650,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5719,7 +5707,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5731,7 +5719,7 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5743,7 +5731,7 @@
         <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -5754,10 +5742,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5872,10 +5860,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5992,14 +5980,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6021,10 +6009,10 @@
         <v>136</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>139</v>
@@ -6079,7 +6067,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6114,10 +6102,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6143,10 +6131,10 @@
         <v>187</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6173,13 +6161,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6197,7 +6185,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6206,7 +6194,7 @@
         <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>102</v>
@@ -6215,13 +6203,13 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>243</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6232,10 +6220,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6258,13 +6246,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6315,7 +6303,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6324,7 +6312,7 @@
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>102</v>
@@ -6339,7 +6327,7 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6350,10 +6338,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6379,10 +6367,10 @@
         <v>187</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6409,13 +6397,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6433,7 +6421,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6457,7 +6445,7 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6468,10 +6456,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6494,16 +6482,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6553,7 +6541,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6565,7 +6553,7 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -6577,7 +6565,7 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6588,10 +6576,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6706,10 +6694,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6826,14 +6814,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6855,10 +6843,10 @@
         <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>139</v>
@@ -6913,7 +6901,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6948,10 +6936,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6977,10 +6965,10 @@
         <v>187</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7007,13 +6995,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7031,7 +7019,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7040,25 +7028,25 @@
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>79</v>
@@ -7066,10 +7054,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7092,13 +7080,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7149,7 +7137,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7158,7 +7146,7 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>102</v>
@@ -7173,10 +7161,10 @@
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>79</v>
@@ -7184,10 +7172,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7210,13 +7198,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7267,7 +7255,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7282,16 +7270,16 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>

--- a/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-diagnosis.xlsx
+++ b/branches/HIV-Diagnosis-FIG-18-new-branch/StructureDefinition-hiv-diagnosis.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:22:24+00:00</t>
+    <t>2023-02-08T11:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
